--- a/Light/Assets/_Doc/【虫灯】策划方案.xlsx
+++ b/Light/Assets/_Doc/【虫灯】策划方案.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27952" windowHeight="12255"/>
+    <workbookView windowWidth="18352" windowHeight="8055" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="计划" sheetId="5" r:id="rId1"/>
@@ -12,6 +12,8 @@
     <sheet name="机制" sheetId="3" r:id="rId3"/>
     <sheet name="地图" sheetId="2" r:id="rId4"/>
     <sheet name="外围" sheetId="4" r:id="rId5"/>
+    <sheet name="资源" sheetId="6" r:id="rId6"/>
+    <sheet name="故事" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,12 +33,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="89">
+  <si>
+    <t>思路</t>
+  </si>
+  <si>
+    <t>主题是死亡</t>
+  </si>
+  <si>
+    <t>在塑造光之前，先塑造黑暗、恐惧和压抑</t>
+  </si>
+  <si>
+    <t>强烈的黑暗和微弱的光形成鲜明对比</t>
+  </si>
+  <si>
+    <t>角色的意志：利用微弱的光战胜黑暗和恐惧</t>
+  </si>
   <si>
     <t>体验</t>
   </si>
   <si>
-    <t>你降临于一片迷雾大陆，周遭漆黑一片，又伴随着雷雨</t>
+    <t>你降临于一片墓园之中，周遭漆黑一片，又伴随着雷雨</t>
   </si>
   <si>
     <t>黑暗中不时传来诡异的嘶叫声，闪电亮起的瞬间，你会看到那些狰狞的怪物，它们正悄然向你靠近</t>
@@ -48,37 +65,100 @@
     <t>当萤火虫全部死去，你将彻底陷入黑暗之中，即便不死于怪物的攻击，也会死于自己的恐惧心跳之中</t>
   </si>
   <si>
-    <t>幸好地图上还有其他的萤火虫</t>
-  </si>
-  <si>
-    <t>你一边尝试拉开与怪物的距离，一边寻找萤火虫来填充你的灯</t>
-  </si>
-  <si>
-    <t>你进入怪物视野中时，怪物会追逐攻击你</t>
-  </si>
-  <si>
-    <t>怪物进入你的视野中时，你会自动发动魔法攻击</t>
-  </si>
-  <si>
-    <t>杀死怪物时会获得经验，提升等级，选择技能</t>
-  </si>
-  <si>
-    <t>BOSS巢穴就在地图中的某处，你找到后将其毁灭，就会进入下一个关卡</t>
-  </si>
-  <si>
-    <t>你需要在限定时间内通关，否则会游戏失败</t>
-  </si>
-  <si>
-    <t>思路</t>
-  </si>
-  <si>
-    <t>在塑造光之前，先塑造黑暗、恐惧和压抑</t>
-  </si>
-  <si>
-    <t>强烈的黑暗和微弱的光形成鲜明对比</t>
-  </si>
-  <si>
-    <t>角色的意志：利用微弱的光战胜黑暗和恐惧</t>
+    <t>阶段一：</t>
+  </si>
+  <si>
+    <t>你跟随一个不安的灵魂的指引（强引导），寻找一个独特的【墓碑】</t>
+  </si>
+  <si>
+    <t>阶段二：（找到墓碑后）</t>
+  </si>
+  <si>
+    <t>你找到了墓碑。墓志铭上有一段死者生前的故事，属于那个不安的灵魂。你获知了故事，要寻找一件【遗物】（弱引导）</t>
+  </si>
+  <si>
+    <t>你找到了遗物，但它被一个恶魔所守护。你战胜了恶魔，获得了遗物，不安的灵魂获得安息后消失</t>
+  </si>
+  <si>
+    <t>故事1</t>
+  </si>
+  <si>
+    <t>不安的灵魂：我把玩具藏在了马可再也找不到的地方。</t>
+  </si>
+  <si>
+    <t>我叫玛利亚，今年13岁，我出生在阿富汗，我的父亲是一个教师，我的母亲是一个医生，我还有一个淘气的弟弟叫马可。</t>
+  </si>
+  <si>
+    <t>有一天我带着马可去集市上玩，马可捡到了两个黑色的玩具。</t>
+  </si>
+  <si>
+    <t>然后，我就什么都不知道了。</t>
+  </si>
+  <si>
+    <t>【哑火的美军手雷】</t>
+  </si>
+  <si>
+    <t>不安的灵魂：感谢你知道了我的故事，希望世界上再也没有黑色的玩具。</t>
+  </si>
+  <si>
+    <t>故事2</t>
+  </si>
+  <si>
+    <t>不安的灵魂：我只想知道，那件礼物是什么。</t>
+  </si>
+  <si>
+    <t>我叫苏珊，这是我唯一认识的几个字，但汤姆说这是世界上最美的名字。</t>
+  </si>
+  <si>
+    <t>汤姆是一名律师，某一天他带着一张信函找到我，说对我一见钟情。</t>
+  </si>
+  <si>
+    <t>后来我们坐游轮去度假，那天我们在船甲上吹着海风，我喝了很多甜酒，汤姆说让我闭上眼睛，要送我一个礼物。礼物？我的心开始疯狂跳动。</t>
+  </si>
+  <si>
+    <t>我闭上眼睛时，似乎一阵猛烈的海风将我吹落船舷，我慌乱中死死抓住汤姆的衣领，然后我们相拥落入海水之中。</t>
+  </si>
+  <si>
+    <t>不安的灵魂：我只想知道，那件礼物是什么。哦！亲爱的汤姆，我到死也在拥抱着你。</t>
+  </si>
+  <si>
+    <t>【苏珊叔叔的遗产】</t>
+  </si>
+  <si>
+    <t>不安的灵魂：这是汤姆带来的那张信函？上面写着什么？我只知道有几个字是我的名字。</t>
+  </si>
+  <si>
+    <t>故事3</t>
+  </si>
+  <si>
+    <t>不安的灵魂：你看到了吗？那亮闪闪的东西。</t>
+  </si>
+  <si>
+    <t>我叫杰克逊，大家都称我为数学家，自然，我对自己的算术天赋颇感骄傲。</t>
+  </si>
+  <si>
+    <t>但在那一天，我却受到了极大的羞辱。</t>
+  </si>
+  <si>
+    <t>屠夫塔里一年前从我这借走100英镑，上月他向我还钱，却只丢给了我200英镑，不！这不对，别忘了我可是个数学家。</t>
+  </si>
+  <si>
+    <t>本钱100英镑，按照每天1英镑的利息计算，整整少了205英镑，由于屠夫是下午才来敲的门，还要再算0.5英镑。总共，405.5英镑！</t>
+  </si>
+  <si>
+    <t>我将屠夫告上了法庭，在开庭前的一个雨夜里，我正埋头于一堆债书里研究算术时，听到有人敲门。</t>
+  </si>
+  <si>
+    <t>我提着灯打开门，是屠夫塔里，他说他要还债，并从衣服里掏出亮闪闪的东西。</t>
+  </si>
+  <si>
+    <t>不安的灵魂：当时黑夜下雨，我没看清楚，那亮闪闪的东西，是不是一袋钱？</t>
+  </si>
+  <si>
+    <t>【沾血的屠刀】</t>
+  </si>
+  <si>
+    <t>不安的灵魂：这把破刀根本值不了多少钱，屠夫塔里休想赖账！</t>
   </si>
   <si>
     <t>基础规则</t>
@@ -90,7 +170,7 @@
     <t>通关条件</t>
   </si>
   <si>
-    <t>找到/消灭BOSS巢穴</t>
+    <t>获得遗物</t>
   </si>
   <si>
     <t>失败条件</t>
@@ -126,15 +206,12 @@
     <t>短时间内，视野最大</t>
   </si>
   <si>
-    <t>怪物巢穴</t>
+    <t>墓碑</t>
   </si>
   <si>
     <t>怪物出生</t>
   </si>
   <si>
-    <t>BOSS巢穴。始终在地图最中心</t>
-  </si>
-  <si>
     <t>野怪</t>
   </si>
   <si>
@@ -208,6 +285,21 @@
   </si>
   <si>
     <t>可升星</t>
+  </si>
+  <si>
+    <t>小骷髅</t>
+  </si>
+  <si>
+    <t>暗影</t>
+  </si>
+  <si>
+    <t>狼</t>
+  </si>
+  <si>
+    <t>蜘蛛</t>
+  </si>
+  <si>
+    <t>故事道具：手雷；书信</t>
   </si>
 </sst>
 </file>
@@ -390,18 +482,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="35">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.05"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -808,7 +894,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -832,16 +918,16 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -850,89 +936,89 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -970,9 +1056,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1045,20 +1128,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>72390</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>415290</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>65405</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>61595</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1" descr="虫灯.drawio"/>
+        <xdr:cNvPr id="4" name="图片 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1071,12 +1154,16 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2015490" y="986790"/>
-          <a:ext cx="10058400" cy="3021965"/>
+          <a:off x="2590800" y="514350"/>
+          <a:ext cx="11148060" cy="5033645"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1085,6 +1172,53 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>111760</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>84455</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>103505</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8507095" y="635"/>
+          <a:ext cx="3201670" cy="6389370"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2067,13 +2201,13 @@
   <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W20" sqref="W20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="16384" width="9.02654867256637" style="13"/>
+    <col min="1" max="16384" width="9.02654867256637" style="2"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2085,10 +2219,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:B23"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F55" sqref="F55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="1"/>
@@ -2096,90 +2230,220 @@
     <col min="1" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
-      <c r="A2" s="1" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2">
-      <c r="B6" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:2">
-      <c r="B7" s="1" t="s">
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="2:2">
       <c r="B9" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:2">
       <c r="B10" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:2">
       <c r="B12" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="14" spans="2:2">
-      <c r="B14" s="1" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2">
+      <c r="B15" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="16" spans="2:2">
       <c r="B16" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" s="1" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="1" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="1" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="1:2">
+      <c r="A23" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="B23" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2">
+      <c r="B25" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2">
+      <c r="B26" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2">
+      <c r="B27" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2">
+      <c r="B28" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2">
+      <c r="B30" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2">
+      <c r="B31" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2">
+      <c r="B35" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2">
+      <c r="B36" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2">
+      <c r="B37" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2">
+      <c r="B38" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2">
+      <c r="B40" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2">
+      <c r="B41" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2">
+      <c r="B42" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2">
+      <c r="B47" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2">
+      <c r="B48" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2">
+      <c r="B49" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2">
+      <c r="B50" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2">
+      <c r="B53" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2">
+      <c r="B54" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2">
+      <c r="B55" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2188,8 +2452,8 @@
   <sheetPr/>
   <dimension ref="A1:C42"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75" outlineLevelCol="2"/>
@@ -2203,13 +2467,13 @@
     </row>
     <row r="2" s="11" customFormat="1" spans="1:1">
       <c r="A2" s="12" t="s">
-        <v>16</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" s="11" customFormat="1" spans="1:2">
       <c r="A3" s="12"/>
       <c r="B3" s="11" t="s">
-        <v>17</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" spans="1:1">
@@ -2218,10 +2482,10 @@
     <row r="5" s="11" customFormat="1" spans="1:3">
       <c r="A5" s="12"/>
       <c r="B5" s="11" t="s">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>19</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" s="11" customFormat="1" spans="1:1">
@@ -2230,22 +2494,22 @@
     <row r="7" s="11" customFormat="1" spans="1:3">
       <c r="A7" s="12"/>
       <c r="B7" s="11" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
     </row>
     <row r="8" s="11" customFormat="1" spans="1:3">
       <c r="A8" s="12"/>
       <c r="C8" s="11" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" s="11" customFormat="1" spans="1:3">
       <c r="A9" s="12"/>
       <c r="C9" s="11" t="s">
-        <v>23</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" s="11" customFormat="1" spans="1:1">
@@ -2253,22 +2517,22 @@
     </row>
     <row r="11" s="11" customFormat="1" spans="1:1">
       <c r="A11" s="12" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" s="11" customFormat="1" spans="1:2">
       <c r="A12" s="12"/>
       <c r="B12" s="11" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" s="11" customFormat="1" spans="1:3">
       <c r="A13" s="12"/>
       <c r="B13" s="11" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>27</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" s="11" customFormat="1" spans="1:1">
@@ -2277,49 +2541,46 @@
     <row r="15" s="11" customFormat="1" spans="1:2">
       <c r="A15" s="12"/>
       <c r="B15" s="11" t="s">
-        <v>28</v>
+        <v>54</v>
       </c>
     </row>
     <row r="16" s="11" customFormat="1" spans="1:3">
       <c r="A16" s="12"/>
       <c r="B16" s="11" t="s">
-        <v>29</v>
+        <v>55</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>30</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" s="11" customFormat="1" spans="1:3">
       <c r="A17" s="12"/>
       <c r="B17" s="11" t="s">
-        <v>31</v>
+        <v>57</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" s="11" customFormat="1" spans="1:3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" s="11" customFormat="1" spans="1:1">
       <c r="A18" s="12"/>
-      <c r="C18" s="11" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="19" s="11" customFormat="1" spans="1:3">
       <c r="A19" s="12"/>
       <c r="B19" s="11" t="s">
-        <v>34</v>
+        <v>59</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>35</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" s="11" customFormat="1" spans="1:3">
       <c r="A20" s="12"/>
       <c r="B20" s="11" t="s">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" s="11" customFormat="1" spans="1:1">
@@ -2327,16 +2588,16 @@
     </row>
     <row r="22" s="11" customFormat="1" spans="1:1">
       <c r="A22" s="12" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" s="11" customFormat="1" spans="1:3">
       <c r="A23" s="12"/>
       <c r="B23" s="11" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>40</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" s="11" customFormat="1" spans="1:1">
@@ -2345,28 +2606,28 @@
     <row r="25" s="11" customFormat="1" spans="1:3">
       <c r="A25" s="12"/>
       <c r="B25" s="11" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>42</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" s="11" customFormat="1" spans="1:3">
       <c r="A26" s="12"/>
       <c r="C26" s="11" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" s="11" customFormat="1" spans="1:3">
       <c r="A27" s="12"/>
       <c r="C27" s="11" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
     </row>
     <row r="28" s="11" customFormat="1" spans="1:3">
       <c r="A28" s="12"/>
       <c r="C28" s="11" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" s="11" customFormat="1" spans="1:1">
@@ -2375,10 +2636,10 @@
     <row r="30" s="11" customFormat="1" spans="1:3">
       <c r="A30" s="12"/>
       <c r="B30" s="11" t="s">
-        <v>46</v>
+        <v>71</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>47</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" s="11" customFormat="1" spans="1:1">
@@ -2387,13 +2648,13 @@
     <row r="32" s="11" customFormat="1" spans="1:2">
       <c r="A32" s="12"/>
       <c r="B32" s="11" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="33" s="11" customFormat="1" spans="1:2">
       <c r="A33" s="12"/>
       <c r="B33" s="11" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" s="11" customFormat="1" spans="1:1">
@@ -2401,28 +2662,28 @@
     </row>
     <row r="35" s="11" customFormat="1" spans="1:1">
       <c r="A35" s="12" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" s="11" customFormat="1" spans="1:2">
       <c r="A36" s="12"/>
       <c r="B36" s="11" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" s="11" customFormat="1" spans="1:3">
       <c r="A37" s="12"/>
       <c r="B37" s="11" t="s">
-        <v>52</v>
+        <v>77</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" s="11" customFormat="1" spans="1:2">
       <c r="A38" s="12"/>
       <c r="B38" s="11" t="s">
-        <v>54</v>
+        <v>79</v>
       </c>
     </row>
     <row r="39" s="11" customFormat="1" spans="1:1">
@@ -2430,19 +2691,19 @@
     </row>
     <row r="40" s="11" customFormat="1" spans="1:1">
       <c r="A40" s="12" t="s">
-        <v>55</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" s="11" customFormat="1" spans="1:2">
       <c r="A41" s="12"/>
       <c r="B41" s="11" t="s">
-        <v>48</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" s="11" customFormat="1" spans="1:2">
       <c r="A42" s="12"/>
       <c r="B42" s="11" t="s">
-        <v>49</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -2663,21 +2924,107 @@
   <sheetData>
     <row r="3" spans="2:2">
       <c r="B3" s="1" t="s">
-        <v>56</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="2:2">
       <c r="B5" s="1" t="s">
-        <v>57</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="2:2">
       <c r="B6" s="1" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B3:C17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="15" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="16384" width="9.02654867256637" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3">
+      <c r="C8" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3">
+      <c r="C9" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3">
+      <c r="C11" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3">
+      <c r="C12" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2">
+      <c r="B14" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3">
+      <c r="C15" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3">
+      <c r="C16" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.02654867256637" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>